--- a/MerakiAPI/InveManu.xlsx
+++ b/MerakiAPI/InveManu.xlsx
@@ -56,818 +56,818 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFecbfa4"/>
-        <bgColor rgb="FFecbfa4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcaf0b9"/>
-        <bgColor rgb="FFcaf0b9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFabe7bc"/>
-        <bgColor rgb="FFabe7bc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfee6f6"/>
-        <bgColor rgb="FFfee6f6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFca9abf"/>
-        <bgColor rgb="FFca9abf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf29fe8"/>
-        <bgColor rgb="FFf29fe8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc5cdee"/>
-        <bgColor rgb="FFc5cdee"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFecfca4"/>
-        <bgColor rgb="FFecfca4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfad09e"/>
-        <bgColor rgb="FFfad09e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc5c6d0"/>
-        <bgColor rgb="FFc5c6d0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFeceabd"/>
-        <bgColor rgb="FFeceabd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd8a0bf"/>
-        <bgColor rgb="FFd8a0bf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe7d2e1"/>
-        <bgColor rgb="FFe7d2e1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe2a6da"/>
-        <bgColor rgb="FFe2a6da"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa6d3d8"/>
-        <bgColor rgb="FFa6d3d8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb6b198"/>
-        <bgColor rgb="FFb6b198"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFaffdc5"/>
-        <bgColor rgb="FFaffdc5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa4f4c0"/>
-        <bgColor rgb="FFa4f4c0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ba5d9"/>
-        <bgColor rgb="FF9ba5d9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe1dda0"/>
-        <bgColor rgb="FFe1dda0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb2b2d1"/>
-        <bgColor rgb="FFb2b2d1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ffdcf"/>
-        <bgColor rgb="FF9ffdcf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9caef1"/>
-        <bgColor rgb="FF9caef1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd2d1eb"/>
-        <bgColor rgb="FFd2d1eb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe0ded0"/>
-        <bgColor rgb="FFe0ded0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa5abf3"/>
-        <bgColor rgb="FFa5abf3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf99eef"/>
-        <bgColor rgb="FFf99eef"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe0c3db"/>
-        <bgColor rgb="FFe0c3db"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc3e2d6"/>
-        <bgColor rgb="FFc3e2d6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFca9aea"/>
-        <bgColor rgb="FFca9aea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcca4e5"/>
-        <bgColor rgb="FFcca4e5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb0c0c9"/>
-        <bgColor rgb="FFb0c0c9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdccff1"/>
-        <bgColor rgb="FFdccff1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc7d9ed"/>
-        <bgColor rgb="FFc7d9ed"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe4a3ce"/>
-        <bgColor rgb="FFe4a3ce"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc6edba"/>
-        <bgColor rgb="FFc6edba"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9c9ec7"/>
-        <bgColor rgb="FF9c9ec7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFccbfca"/>
-        <bgColor rgb="FFccbfca"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFedbcf6"/>
-        <bgColor rgb="FFedbcf6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc4b3b5"/>
-        <bgColor rgb="FFc4b3b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe2f997"/>
-        <bgColor rgb="FFe2f997"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc09edb"/>
-        <bgColor rgb="FFc09edb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa7aae9"/>
-        <bgColor rgb="FFa7aae9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe1e4ea"/>
-        <bgColor rgb="FFe1e4ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb9e3a4"/>
-        <bgColor rgb="FFb9e3a4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFeeeefc"/>
-        <bgColor rgb="FFeeeefc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc8c8cc"/>
-        <bgColor rgb="FFc8c8cc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdcb2cf"/>
-        <bgColor rgb="FFdcb2cf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFaea9fd"/>
-        <bgColor rgb="FFaea9fd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa6a7e4"/>
-        <bgColor rgb="FFa6a7e4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFedd9f8"/>
-        <bgColor rgb="FFedd9f8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb1999d"/>
-        <bgColor rgb="FFb1999d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9beddb"/>
-        <bgColor rgb="FF9beddb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd8dca6"/>
-        <bgColor rgb="FFd8dca6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd0ccb1"/>
-        <bgColor rgb="FFd0ccb1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb2a2e4"/>
-        <bgColor rgb="FFb2a2e4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe0f7a3"/>
-        <bgColor rgb="FFe0f7a3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc1f6e1"/>
-        <bgColor rgb="FFc1f6e1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfcafd3"/>
-        <bgColor rgb="FFfcafd3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb9bdb3"/>
-        <bgColor rgb="FFb9bdb3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc3aed8"/>
-        <bgColor rgb="FFc3aed8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9db199"/>
-        <bgColor rgb="FF9db199"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa3d9c3"/>
-        <bgColor rgb="FFa3d9c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa4afa6"/>
-        <bgColor rgb="FFa4afa6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe4c2cb"/>
-        <bgColor rgb="FFe4c2cb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcce19d"/>
-        <bgColor rgb="FFcce19d"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa9e6df"/>
-        <bgColor rgb="FFa9e6df"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd0baee"/>
-        <bgColor rgb="FFd0baee"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFbccdf7"/>
-        <bgColor rgb="FFbccdf7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe8c996"/>
-        <bgColor rgb="FFe8c996"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe096f1"/>
-        <bgColor rgb="FFe096f1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc2a0c7"/>
-        <bgColor rgb="FFc2a0c7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa5e8d7"/>
-        <bgColor rgb="FFa5e8d7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdae2b4"/>
-        <bgColor rgb="FFdae2b4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb1bcf4"/>
-        <bgColor rgb="FFb1bcf4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa4e0aa"/>
-        <bgColor rgb="FFa4e0aa"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe5b3fa"/>
-        <bgColor rgb="FFe5b3fa"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd6b6b1"/>
-        <bgColor rgb="FFd6b6b1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfd96d1"/>
-        <bgColor rgb="FFfd96d1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc3e6e3"/>
-        <bgColor rgb="FFc3e6e3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe1a6bc"/>
-        <bgColor rgb="FFe1a6bc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9bddec"/>
-        <bgColor rgb="FF9bddec"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb3a4f3"/>
-        <bgColor rgb="FFb3a4f3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc996c4"/>
-        <bgColor rgb="FFc996c4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf3efa0"/>
-        <bgColor rgb="FFf3efa0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd1b5ba"/>
-        <bgColor rgb="FFd1b5ba"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc6a29e"/>
-        <bgColor rgb="FFc6a29e"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe9a2ec"/>
-        <bgColor rgb="FFe9a2ec"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb7d8cf"/>
-        <bgColor rgb="FFb7d8cf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFaee8b5"/>
-        <bgColor rgb="FFaee8b5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdfe1c3"/>
-        <bgColor rgb="FFdfe1c3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe3baa8"/>
-        <bgColor rgb="FFe3baa8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe9b9de"/>
-        <bgColor rgb="FFe9b9de"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa3e49a"/>
-        <bgColor rgb="FFa3e49a"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc2d09c"/>
-        <bgColor rgb="FFc2d09c"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFaaefb4"/>
-        <bgColor rgb="FFaaefb4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdfcfb9"/>
-        <bgColor rgb="FFdfcfb9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcbd0da"/>
-        <bgColor rgb="FFcbd0da"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb9dadb"/>
-        <bgColor rgb="FFb9dadb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9af9ea"/>
-        <bgColor rgb="FF9af9ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe4f0d2"/>
-        <bgColor rgb="FFe4f0d2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFcda8ce"/>
-        <bgColor rgb="FFcda8ce"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe5a9b0"/>
-        <bgColor rgb="FFe5a9b0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9ebdea"/>
-        <bgColor rgb="FF9ebdea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb1babe"/>
-        <bgColor rgb="FFb1babe"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF98fdd7"/>
-        <bgColor rgb="FF98fdd7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf9f4cd"/>
-        <bgColor rgb="FFf9f4cd"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc3e1d6"/>
-        <bgColor rgb="FFc3e1d6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdad4d9"/>
-        <bgColor rgb="FFdad4d9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFafd6ae"/>
-        <bgColor rgb="FFafd6ae"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa7dab1"/>
-        <bgColor rgb="FFa7dab1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd1b4b7"/>
-        <bgColor rgb="FFd1b4b7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb7fd98"/>
-        <bgColor rgb="FFb7fd98"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc6c1b7"/>
-        <bgColor rgb="FFc6c1b7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdb96df"/>
-        <bgColor rgb="FFdb96df"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa3bdee"/>
-        <bgColor rgb="FFa3bdee"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb8aaad"/>
-        <bgColor rgb="FFb8aaad"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd8cabc"/>
-        <bgColor rgb="FFd8cabc"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe2ddbb"/>
-        <bgColor rgb="FFe2ddbb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFdfbca5"/>
-        <bgColor rgb="FFdfbca5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd2b8d9"/>
-        <bgColor rgb="FFd2b8d9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFbcfda6"/>
-        <bgColor rgb="FFbcfda6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFe6efa6"/>
-        <bgColor rgb="FFe6efa6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb6ded8"/>
-        <bgColor rgb="FFb6ded8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf5d597"/>
-        <bgColor rgb="FFf5d597"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9cf3ea"/>
-        <bgColor rgb="FF9cf3ea"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFb3cae5"/>
-        <bgColor rgb="FFb3cae5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc5e9b9"/>
-        <bgColor rgb="FFc5e9b9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFd9e0ef"/>
-        <bgColor rgb="FFd9e0ef"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFa2cfc3"/>
-        <bgColor rgb="FFa2cfc3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFfbc4f6"/>
-        <bgColor rgb="FFfbc4f6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFbeafcf"/>
-        <bgColor rgb="FFbeafcf"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc7befb"/>
-        <bgColor rgb="FFc7befb"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99a0a6"/>
-        <bgColor rgb="FF99a0a6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFc6f2f6"/>
-        <bgColor rgb="FFc6f2f6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFf2efd8"/>
-        <bgColor rgb="FFf2efd8"/>
+        <fgColor rgb="FF98aaec"/>
+        <bgColor rgb="FF98aaec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf8edae"/>
+        <bgColor rgb="FFf8edae"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd39ad6"/>
+        <bgColor rgb="FFd39ad6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfce9e4"/>
+        <bgColor rgb="FFfce9e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb3a69e"/>
+        <bgColor rgb="FFb3a69e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfee6d5"/>
+        <bgColor rgb="FFfee6d5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdfbada"/>
+        <bgColor rgb="FFdfbada"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa5b9d1"/>
+        <bgColor rgb="FFa5b9d1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9da1c9"/>
+        <bgColor rgb="FF9da1c9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9fecfd"/>
+        <bgColor rgb="FF9fecfd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdedcb5"/>
+        <bgColor rgb="FFdedcb5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbcc19a"/>
+        <bgColor rgb="FFbcc19a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdddf9f"/>
+        <bgColor rgb="FFdddf9f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd0d6ad"/>
+        <bgColor rgb="FFd0d6ad"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99a7f3"/>
+        <bgColor rgb="FF99a7f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa9c2f5"/>
+        <bgColor rgb="FFa9c2f5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc1cea3"/>
+        <bgColor rgb="FFc1cea3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa0b0fb"/>
+        <bgColor rgb="FFa0b0fb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbed2cc"/>
+        <bgColor rgb="FFbed2cc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9c9cca"/>
+        <bgColor rgb="FF9c9cca"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcaddbc"/>
+        <bgColor rgb="FFcaddbc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa69bb2"/>
+        <bgColor rgb="FFa69bb2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd299c6"/>
+        <bgColor rgb="FFd299c6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98e8ab"/>
+        <bgColor rgb="FF98e8ab"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe5999e"/>
+        <bgColor rgb="FFe5999e"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb2cfa6"/>
+        <bgColor rgb="FFb2cfa6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa3b8d1"/>
+        <bgColor rgb="FFa3b8d1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd1a5f3"/>
+        <bgColor rgb="FFd1a5f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa9e5fc"/>
+        <bgColor rgb="FFa9e5fc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf2ccf3"/>
+        <bgColor rgb="FFf2ccf3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFeae2cc"/>
+        <bgColor rgb="FFeae2cc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc9d4b5"/>
+        <bgColor rgb="FFc9d4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFecacb0"/>
+        <bgColor rgb="FFecacb0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFabf1c6"/>
+        <bgColor rgb="FFabf1c6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFccd9a1"/>
+        <bgColor rgb="FFccd9a1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc8d9e0"/>
+        <bgColor rgb="FFc8d9e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf3ad97"/>
+        <bgColor rgb="FFf3ad97"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbde2e0"/>
+        <bgColor rgb="FFbde2e0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFaea0f7"/>
+        <bgColor rgb="FFaea0f7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbbb196"/>
+        <bgColor rgb="FFbbb196"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd2aaeb"/>
+        <bgColor rgb="FFd2aaeb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd1facd"/>
+        <bgColor rgb="FFd1facd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa6cae6"/>
+        <bgColor rgb="FFa6cae6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdda3d7"/>
+        <bgColor rgb="FFdda3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf89ad5"/>
+        <bgColor rgb="FFf89ad5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe3b1e6"/>
+        <bgColor rgb="FFe3b1e6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa1bdfb"/>
+        <bgColor rgb="FFa1bdfb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa2dbab"/>
+        <bgColor rgb="FFa2dbab"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFaae9f1"/>
+        <bgColor rgb="FFaae9f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfaa3e1"/>
+        <bgColor rgb="FFfaa3e1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb0b1dc"/>
+        <bgColor rgb="FFb0b1dc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFacb3e6"/>
+        <bgColor rgb="FFacb3e6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc9b3d7"/>
+        <bgColor rgb="FFc9b3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbdb1ce"/>
+        <bgColor rgb="FFbdb1ce"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdbaae9"/>
+        <bgColor rgb="FFdbaae9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbff6ac"/>
+        <bgColor rgb="FFbff6ac"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfbe5b1"/>
+        <bgColor rgb="FFfbe5b1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf6efc5"/>
+        <bgColor rgb="FFf6efc5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFeaede5"/>
+        <bgColor rgb="FFeaede5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdfbda8"/>
+        <bgColor rgb="FFdfbda8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd8d3a9"/>
+        <bgColor rgb="FFd8d3a9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFadbcec"/>
+        <bgColor rgb="FFadbcec"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa0e9bc"/>
+        <bgColor rgb="FFa0e9bc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF96cbd0"/>
+        <bgColor rgb="FF96cbd0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb2a0ba"/>
+        <bgColor rgb="FFb2a0ba"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe3c9c2"/>
+        <bgColor rgb="FFe3c9c2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFeebeb2"/>
+        <bgColor rgb="FFeebeb2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf6f5e1"/>
+        <bgColor rgb="FFf6f5e1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa2c7a0"/>
+        <bgColor rgb="FFa2c7a0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98a0d0"/>
+        <bgColor rgb="FF98a0d0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfeda96"/>
+        <bgColor rgb="FFfeda96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd9f797"/>
+        <bgColor rgb="FFd9f797"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb1acc8"/>
+        <bgColor rgb="FFb1acc8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd0fecd"/>
+        <bgColor rgb="FFd0fecd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97c5b1"/>
+        <bgColor rgb="FF97c5b1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfec1a3"/>
+        <bgColor rgb="FFfec1a3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe1fdf0"/>
+        <bgColor rgb="FFe1fdf0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb19ab0"/>
+        <bgColor rgb="FFb19ab0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFedd2c9"/>
+        <bgColor rgb="FFedd2c9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa5c2b9"/>
+        <bgColor rgb="FFa5c2b9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa7e4df"/>
+        <bgColor rgb="FFa7e4df"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb3c9a5"/>
+        <bgColor rgb="FFb3c9a5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFaecda1"/>
+        <bgColor rgb="FFaecda1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb7cbef"/>
+        <bgColor rgb="FFb7cbef"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe9bed9"/>
+        <bgColor rgb="FFe9bed9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfbead1"/>
+        <bgColor rgb="FFfbead1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFafdae0"/>
+        <bgColor rgb="FFafdae0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb6dc9f"/>
+        <bgColor rgb="FFb6dc9f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98f9ea"/>
+        <bgColor rgb="FF98f9ea"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe3b2c5"/>
+        <bgColor rgb="FFe3b2c5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFceece3"/>
+        <bgColor rgb="FFceece3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe5e7b1"/>
+        <bgColor rgb="FFe5e7b1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbdfeb7"/>
+        <bgColor rgb="FFbdfeb7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd2ccb6"/>
+        <bgColor rgb="FFd2ccb6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb2a7f1"/>
+        <bgColor rgb="FFb2a7f1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9af7a7"/>
+        <bgColor rgb="FF9af7a7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFbad3f9"/>
+        <bgColor rgb="FFbad3f9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9cefaf"/>
+        <bgColor rgb="FF9cefaf"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFeeaad9"/>
+        <bgColor rgb="FFeeaad9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa1e3d7"/>
+        <bgColor rgb="FFa1e3d7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd99da0"/>
+        <bgColor rgb="FFd99da0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFf9b9ed"/>
+        <bgColor rgb="FFf9b9ed"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb996f2"/>
+        <bgColor rgb="FFb996f2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe6b6a7"/>
+        <bgColor rgb="FFe6b6a7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb2e5c8"/>
+        <bgColor rgb="FFb2e5c8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFe0bd9c"/>
+        <bgColor rgb="FFe0bd9c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd8f2d6"/>
+        <bgColor rgb="FFd8f2d6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb6b4f3"/>
+        <bgColor rgb="FFb6b4f3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb1fef3"/>
+        <bgColor rgb="FFb1fef3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ce8d5"/>
+        <bgColor rgb="FF9ce8d5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcbceae"/>
+        <bgColor rgb="FFcbceae"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd4b2dd"/>
+        <bgColor rgb="FFd4b2dd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFc7c89c"/>
+        <bgColor rgb="FFc7c89c"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF97f2fa"/>
+        <bgColor rgb="FF97f2fa"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfbf6ce"/>
+        <bgColor rgb="FFfbf6ce"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb2b396"/>
+        <bgColor rgb="FFb2b396"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFde97e2"/>
+        <bgColor rgb="FFde97e2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa0a59a"/>
+        <bgColor rgb="FFa0a59a"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd6ebc4"/>
+        <bgColor rgb="FFd6ebc4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcff6f4"/>
+        <bgColor rgb="FFcff6f4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFead0b3"/>
+        <bgColor rgb="FFead0b3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFdfb6e3"/>
+        <bgColor rgb="FFdfb6e3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFece0c9"/>
+        <bgColor rgb="FFece0c9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9cb3e4"/>
+        <bgColor rgb="FF9cb3e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFaed5f0"/>
+        <bgColor rgb="FFaed5f0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9bf596"/>
+        <bgColor rgb="FF9bf596"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFb9e0e4"/>
+        <bgColor rgb="FFb9e0e4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9cc2ae"/>
+        <bgColor rgb="FF9cc2ae"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9db4cb"/>
+        <bgColor rgb="FF9db4cb"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcee8d0"/>
+        <bgColor rgb="FFcee8d0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFcca6c2"/>
+        <bgColor rgb="FFcca6c2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa4e6b2"/>
+        <bgColor rgb="FFa4e6b2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFa8b7c0"/>
+        <bgColor rgb="FFa8b7c0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9cf7dd"/>
+        <bgColor rgb="FF9cf7dd"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFd6b2e1"/>
+        <bgColor rgb="FFd6b2e1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFfbcbc8"/>
+        <bgColor rgb="FFfbcbc8"/>
       </patternFill>
     </fill>
   </fills>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="AV3" s="76" t="inlineStr">
         <is>
-          <t>OXO</t>
+          <t>OXO-COMPACT</t>
         </is>
       </c>
       <c r="AW3" s="77" t="inlineStr">
         <is>
-          <t>OXO-COMPACT</t>
+          <t>OXO-LARGE</t>
         </is>
       </c>
       <c r="AX3" s="78" t="inlineStr">
         <is>
-          <t>OXO-LARGE</t>
+          <t>OXO-SMALL</t>
         </is>
       </c>
       <c r="AY3" s="79" t="inlineStr">
@@ -2955,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="AV4" s="166" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="AW4" s="166" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AX4" s="166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY4" s="166" t="n">
         <v>2</v>
@@ -4102,10 +4102,10 @@
       <c r="AT11" s="168" t="n"/>
       <c r="AU11" s="168" t="n"/>
       <c r="AV11" s="168" t="n"/>
-      <c r="AW11" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="168" t="n"/>
+      <c r="AW11" s="168" t="n"/>
+      <c r="AX11" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AY11" s="168" t="n"/>
       <c r="AZ11" s="168" t="n"/>
       <c r="BA11" s="168" t="n"/>
@@ -4282,10 +4282,10 @@
       <c r="AS12" s="168" t="n"/>
       <c r="AT12" s="168" t="n"/>
       <c r="AU12" s="168" t="n"/>
-      <c r="AV12" s="168" t="n"/>
-      <c r="AW12" s="168" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV12" s="168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="168" t="n"/>
       <c r="AX12" s="168" t="n"/>
       <c r="AY12" s="168" t="n"/>
       <c r="AZ12" s="168" t="n"/>
@@ -4440,10 +4440,10 @@
       <c r="AT13" s="168" t="n"/>
       <c r="AU13" s="168" t="n"/>
       <c r="AV13" s="168" t="n"/>
-      <c r="AW13" s="168" t="n"/>
-      <c r="AX13" s="168" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW13" s="168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="168" t="n"/>
       <c r="AY13" s="168" t="n"/>
       <c r="AZ13" s="168" t="n"/>
       <c r="BA13" s="168" t="n"/>
@@ -4940,10 +4940,10 @@
       <c r="AS16" s="168" t="n"/>
       <c r="AT16" s="168" t="n"/>
       <c r="AU16" s="168" t="n"/>
-      <c r="AV16" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW16" s="168" t="n"/>
+      <c r="AV16" s="168" t="n"/>
+      <c r="AW16" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX16" s="168" t="n"/>
       <c r="AY16" s="168" t="n"/>
       <c r="AZ16" s="168" t="n"/>
@@ -5115,10 +5115,10 @@
       <c r="AS17" s="168" t="n"/>
       <c r="AT17" s="168" t="n"/>
       <c r="AU17" s="168" t="n"/>
-      <c r="AV17" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW17" s="168" t="n"/>
+      <c r="AV17" s="168" t="n"/>
+      <c r="AW17" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX17" s="168" t="n"/>
       <c r="AY17" s="168" t="n">
         <v>2</v>
@@ -5302,9 +5302,7 @@
       <c r="AS18" s="168" t="n"/>
       <c r="AT18" s="168" t="n"/>
       <c r="AU18" s="168" t="n"/>
-      <c r="AV18" s="168" t="n">
-        <v>1</v>
-      </c>
+      <c r="AV18" s="168" t="n"/>
       <c r="AW18" s="168" t="n"/>
       <c r="AX18" s="168" t="n"/>
       <c r="AY18" s="168" t="n"/>
@@ -5471,10 +5469,10 @@
       <c r="AS19" s="168" t="n"/>
       <c r="AT19" s="168" t="n"/>
       <c r="AU19" s="168" t="n"/>
-      <c r="AV19" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW19" s="168" t="n"/>
+      <c r="AV19" s="168" t="n"/>
+      <c r="AW19" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX19" s="168" t="n"/>
       <c r="AY19" s="168" t="n"/>
       <c r="AZ19" s="168" t="n"/>
@@ -5650,10 +5648,10 @@
       <c r="AS20" s="168" t="n"/>
       <c r="AT20" s="168" t="n"/>
       <c r="AU20" s="168" t="n"/>
-      <c r="AV20" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW20" s="168" t="n"/>
+      <c r="AV20" s="168" t="n"/>
+      <c r="AW20" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX20" s="168" t="n"/>
       <c r="AY20" s="168" t="n"/>
       <c r="AZ20" s="168" t="n"/>
@@ -5829,10 +5827,10 @@
       <c r="AS21" s="168" t="n"/>
       <c r="AT21" s="168" t="n"/>
       <c r="AU21" s="168" t="n"/>
-      <c r="AV21" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="168" t="n"/>
+      <c r="AV21" s="168" t="n"/>
+      <c r="AW21" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX21" s="168" t="n"/>
       <c r="AY21" s="168" t="n"/>
       <c r="AZ21" s="168" t="n"/>
@@ -6018,10 +6016,10 @@
       <c r="AS22" s="168" t="n"/>
       <c r="AT22" s="168" t="n"/>
       <c r="AU22" s="168" t="n"/>
-      <c r="AV22" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW22" s="168" t="n"/>
+      <c r="AV22" s="168" t="n"/>
+      <c r="AW22" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX22" s="168" t="n"/>
       <c r="AY22" s="168" t="n"/>
       <c r="AZ22" s="168" t="n"/>
@@ -6193,10 +6191,10 @@
       <c r="AS23" s="168" t="n"/>
       <c r="AT23" s="168" t="n"/>
       <c r="AU23" s="168" t="n"/>
-      <c r="AV23" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" s="168" t="n"/>
+      <c r="AV23" s="168" t="n"/>
+      <c r="AW23" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX23" s="168" t="n"/>
       <c r="AY23" s="168" t="n"/>
       <c r="AZ23" s="168" t="n"/>
@@ -6370,10 +6368,10 @@
       <c r="AS24" s="168" t="n"/>
       <c r="AT24" s="168" t="n"/>
       <c r="AU24" s="168" t="n"/>
-      <c r="AV24" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW24" s="168" t="n"/>
+      <c r="AV24" s="168" t="n"/>
+      <c r="AW24" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX24" s="168" t="n"/>
       <c r="AY24" s="168" t="n"/>
       <c r="AZ24" s="168" t="n"/>
@@ -6537,10 +6535,10 @@
       <c r="AS25" s="168" t="n"/>
       <c r="AT25" s="168" t="n"/>
       <c r="AU25" s="168" t="n"/>
-      <c r="AV25" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW25" s="168" t="n"/>
+      <c r="AV25" s="168" t="n"/>
+      <c r="AW25" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX25" s="168" t="n"/>
       <c r="AY25" s="168" t="n"/>
       <c r="AZ25" s="168" t="n"/>
@@ -6702,10 +6700,10 @@
       <c r="AS26" s="168" t="n"/>
       <c r="AT26" s="168" t="n"/>
       <c r="AU26" s="168" t="n"/>
-      <c r="AV26" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW26" s="168" t="n"/>
+      <c r="AV26" s="168" t="n"/>
+      <c r="AW26" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX26" s="168" t="n"/>
       <c r="AY26" s="168" t="n"/>
       <c r="AZ26" s="168" t="n"/>
@@ -6873,10 +6871,10 @@
       <c r="AS27" s="168" t="n"/>
       <c r="AT27" s="168" t="n"/>
       <c r="AU27" s="168" t="n"/>
-      <c r="AV27" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW27" s="168" t="n"/>
+      <c r="AV27" s="168" t="n"/>
+      <c r="AW27" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX27" s="168" t="n"/>
       <c r="AY27" s="168" t="n"/>
       <c r="AZ27" s="168" t="n"/>
@@ -7056,10 +7054,10 @@
       <c r="AS28" s="168" t="n"/>
       <c r="AT28" s="168" t="n"/>
       <c r="AU28" s="168" t="n"/>
-      <c r="AV28" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW28" s="168" t="n"/>
+      <c r="AV28" s="168" t="n"/>
+      <c r="AW28" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX28" s="168" t="n"/>
       <c r="AY28" s="168" t="n"/>
       <c r="AZ28" s="168" t="n"/>
@@ -7225,10 +7223,10 @@
       <c r="AS29" s="168" t="n"/>
       <c r="AT29" s="168" t="n"/>
       <c r="AU29" s="168" t="n"/>
-      <c r="AV29" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW29" s="168" t="n"/>
+      <c r="AV29" s="168" t="n"/>
+      <c r="AW29" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX29" s="168" t="n"/>
       <c r="AY29" s="168" t="n"/>
       <c r="AZ29" s="168" t="n"/>
@@ -7408,10 +7406,10 @@
       <c r="AS30" s="168" t="n"/>
       <c r="AT30" s="168" t="n"/>
       <c r="AU30" s="168" t="n"/>
-      <c r="AV30" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW30" s="168" t="n"/>
+      <c r="AV30" s="168" t="n"/>
+      <c r="AW30" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX30" s="168" t="n"/>
       <c r="AY30" s="168" t="n"/>
       <c r="AZ30" s="168" t="n"/>
@@ -7587,10 +7585,10 @@
       <c r="AS31" s="168" t="n"/>
       <c r="AT31" s="168" t="n"/>
       <c r="AU31" s="168" t="n"/>
-      <c r="AV31" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW31" s="168" t="n"/>
+      <c r="AV31" s="168" t="n"/>
+      <c r="AW31" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX31" s="168" t="n"/>
       <c r="AY31" s="168" t="n"/>
       <c r="AZ31" s="168" t="n"/>
@@ -7758,10 +7756,10 @@
       <c r="AS32" s="168" t="n"/>
       <c r="AT32" s="168" t="n"/>
       <c r="AU32" s="168" t="n"/>
-      <c r="AV32" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW32" s="168" t="n"/>
+      <c r="AV32" s="168" t="n"/>
+      <c r="AW32" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX32" s="168" t="n"/>
       <c r="AY32" s="168" t="n"/>
       <c r="AZ32" s="168" t="n"/>
@@ -7925,10 +7923,10 @@
       <c r="AS33" s="168" t="n"/>
       <c r="AT33" s="168" t="n"/>
       <c r="AU33" s="168" t="n"/>
-      <c r="AV33" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW33" s="168" t="n"/>
+      <c r="AV33" s="168" t="n"/>
+      <c r="AW33" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX33" s="168" t="n"/>
       <c r="AY33" s="168" t="n"/>
       <c r="AZ33" s="168" t="n"/>
@@ -8094,10 +8092,10 @@
       <c r="AS34" s="168" t="n"/>
       <c r="AT34" s="168" t="n"/>
       <c r="AU34" s="168" t="n"/>
-      <c r="AV34" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW34" s="168" t="n"/>
+      <c r="AV34" s="168" t="n"/>
+      <c r="AW34" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX34" s="168" t="n"/>
       <c r="AY34" s="168" t="n"/>
       <c r="AZ34" s="168" t="n"/>
@@ -8265,10 +8263,10 @@
       <c r="AS35" s="168" t="n"/>
       <c r="AT35" s="168" t="n"/>
       <c r="AU35" s="168" t="n"/>
-      <c r="AV35" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW35" s="168" t="n"/>
+      <c r="AV35" s="168" t="n"/>
+      <c r="AW35" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX35" s="168" t="n"/>
       <c r="AY35" s="168" t="n"/>
       <c r="AZ35" s="168" t="n"/>
@@ -8436,10 +8434,10 @@
       <c r="AS36" s="168" t="n"/>
       <c r="AT36" s="168" t="n"/>
       <c r="AU36" s="168" t="n"/>
-      <c r="AV36" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW36" s="168" t="n"/>
+      <c r="AV36" s="168" t="n"/>
+      <c r="AW36" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX36" s="168" t="n"/>
       <c r="AY36" s="168" t="n"/>
       <c r="AZ36" s="168" t="n"/>
@@ -8605,10 +8603,10 @@
       <c r="AS37" s="168" t="n"/>
       <c r="AT37" s="168" t="n"/>
       <c r="AU37" s="168" t="n"/>
-      <c r="AV37" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW37" s="168" t="n"/>
+      <c r="AV37" s="168" t="n"/>
+      <c r="AW37" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX37" s="168" t="n"/>
       <c r="AY37" s="168" t="n"/>
       <c r="AZ37" s="168" t="n"/>
@@ -8770,10 +8768,10 @@
       <c r="AS38" s="168" t="n"/>
       <c r="AT38" s="168" t="n"/>
       <c r="AU38" s="168" t="n"/>
-      <c r="AV38" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW38" s="168" t="n"/>
+      <c r="AV38" s="168" t="n"/>
+      <c r="AW38" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX38" s="168" t="n"/>
       <c r="AY38" s="168" t="n"/>
       <c r="AZ38" s="168" t="n"/>
@@ -8937,10 +8935,10 @@
       <c r="AS39" s="168" t="n"/>
       <c r="AT39" s="168" t="n"/>
       <c r="AU39" s="168" t="n"/>
-      <c r="AV39" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW39" s="168" t="n"/>
+      <c r="AV39" s="168" t="n"/>
+      <c r="AW39" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX39" s="168" t="n"/>
       <c r="AY39" s="168" t="n"/>
       <c r="AZ39" s="168" t="n"/>
@@ -9106,10 +9104,10 @@
       <c r="AS40" s="168" t="n"/>
       <c r="AT40" s="168" t="n"/>
       <c r="AU40" s="168" t="n"/>
-      <c r="AV40" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW40" s="168" t="n"/>
+      <c r="AV40" s="168" t="n"/>
+      <c r="AW40" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX40" s="168" t="n"/>
       <c r="AY40" s="168" t="n"/>
       <c r="AZ40" s="168" t="n"/>
@@ -9273,10 +9271,10 @@
       <c r="AS41" s="168" t="n"/>
       <c r="AT41" s="168" t="n"/>
       <c r="AU41" s="168" t="n"/>
-      <c r="AV41" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW41" s="168" t="n"/>
+      <c r="AV41" s="168" t="n"/>
+      <c r="AW41" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX41" s="168" t="n"/>
       <c r="AY41" s="168" t="n"/>
       <c r="AZ41" s="168" t="n"/>
@@ -9440,10 +9438,10 @@
       <c r="AS42" s="168" t="n"/>
       <c r="AT42" s="168" t="n"/>
       <c r="AU42" s="168" t="n"/>
-      <c r="AV42" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW42" s="168" t="n"/>
+      <c r="AV42" s="168" t="n"/>
+      <c r="AW42" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX42" s="168" t="n"/>
       <c r="AY42" s="168" t="n"/>
       <c r="AZ42" s="168" t="n"/>
@@ -9607,10 +9605,10 @@
       <c r="AS43" s="168" t="n"/>
       <c r="AT43" s="168" t="n"/>
       <c r="AU43" s="168" t="n"/>
-      <c r="AV43" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW43" s="168" t="n"/>
+      <c r="AV43" s="168" t="n"/>
+      <c r="AW43" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX43" s="168" t="n"/>
       <c r="AY43" s="168" t="n"/>
       <c r="AZ43" s="168" t="n"/>
@@ -9782,10 +9780,10 @@
       </c>
       <c r="AT44" s="168" t="n"/>
       <c r="AU44" s="168" t="n"/>
-      <c r="AV44" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW44" s="168" t="n"/>
+      <c r="AV44" s="168" t="n"/>
+      <c r="AW44" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX44" s="168" t="n"/>
       <c r="AY44" s="168" t="n"/>
       <c r="AZ44" s="168" t="n"/>
@@ -9953,10 +9951,10 @@
       <c r="AS45" s="168" t="n"/>
       <c r="AT45" s="168" t="n"/>
       <c r="AU45" s="168" t="n"/>
-      <c r="AV45" s="168" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW45" s="168" t="n"/>
+      <c r="AV45" s="168" t="n"/>
+      <c r="AW45" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX45" s="168" t="n"/>
       <c r="AY45" s="168" t="n"/>
       <c r="AZ45" s="168" t="n"/>
@@ -10119,10 +10117,10 @@
       <c r="AT46" s="168" t="n"/>
       <c r="AU46" s="168" t="n"/>
       <c r="AV46" s="168" t="n"/>
-      <c r="AW46" s="168" t="n"/>
-      <c r="AX46" s="168" t="n">
-        <v>1</v>
-      </c>
+      <c r="AW46" s="168" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX46" s="168" t="n"/>
       <c r="AY46" s="168" t="n"/>
       <c r="AZ46" s="168" t="n"/>
       <c r="BA46" s="168" t="n"/>
@@ -10284,7 +10282,9 @@
       <c r="AT47" s="168" t="n"/>
       <c r="AU47" s="168" t="n"/>
       <c r="AV47" s="168" t="n"/>
-      <c r="AW47" s="168" t="n"/>
+      <c r="AW47" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX47" s="168" t="n"/>
       <c r="AY47" s="168" t="n"/>
       <c r="AZ47" s="168" t="n"/>
@@ -10453,7 +10453,9 @@
       <c r="AT48" s="168" t="n"/>
       <c r="AU48" s="168" t="n"/>
       <c r="AV48" s="168" t="n"/>
-      <c r="AW48" s="168" t="n"/>
+      <c r="AW48" s="168" t="n">
+        <v>1</v>
+      </c>
       <c r="AX48" s="168" t="n"/>
       <c r="AY48" s="168" t="n"/>
       <c r="AZ48" s="168" t="n"/>
